--- a/3. Resultados/1. reporte_de_ventas_NOV_1_15 - NOMINA/Paola Pinzon.xlsx
+++ b/3. Resultados/1. reporte_de_ventas_NOV_1_15 - NOMINA/Paola Pinzon.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -393,11 +393,6 @@
           <t>Revisar</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Observación</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1773,11 +1768,6 @@
       </c>
       <c r="F51">
         <v>-50000</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>1 de 3</t>
-        </is>
       </c>
     </row>
     <row r="52">
